--- a/HW5/hw5.xlsx
+++ b/HW5/hw5.xlsx
@@ -5,36 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/OneDrive - Gonzaga University/CPSC 223-01/vm-share/CPSC223/ComputerScience223/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51475296-EAAD-2347-ABB7-A5B0E8B10091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{51475296-EAAD-2347-ABB7-A5B0E8B10091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14DB74F3-338C-F24A-ADF7-2D74FDE02A7E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{48DEC31F-1F93-F14E-890E-943183DD87A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$F$2</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Insert Average</t>
   </si>
@@ -91,11 +71,17 @@
   <si>
     <t>HW5</t>
   </si>
+  <si>
+    <t>HW7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -248,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -259,6 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,7 +1492,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW5, HW4, HW3 Insert Average</a:t>
+              <a:t> HW7, HW5, HW4, HW3 Insert Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1687,6 +1677,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1055-5549-915B-4B5987AE534B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HW7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56413333333333326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80169999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45061100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58162666666666674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4C9-C947-BB95-EE7B2B64C518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2065,7 +2127,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW5, HW4, HW3 Remove Average</a:t>
+              <a:t> HW7, HW5, HW4, HW3 Remove Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2250,6 +2312,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9520-C446-9C9A-18DE42111662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HW7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.166666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8333333333333335E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2594-F74D-AA86-E2404E89465B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2628,7 +2762,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW5, HW4, HW3 Find Average</a:t>
+              <a:t> HW7, HW5, HW4, HW3 Find Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2813,6 +2947,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-15E9-6243-B2D0-43715DF67EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HW7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8333333333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.966666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.166666666666667E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC10-3C45-ADE6-15BCDAD48699}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3191,7 +3397,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW5, HW4, HW3 Range Average</a:t>
+              <a:t> HW7, HW5, HW4, HW3 Range Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3376,6 +3582,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-55B7-4E4A-B84D-E88C14C251B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HW7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$19:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6705.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11921.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17128.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26750.666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4C4-0748-A378-A61C7A0F8FA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3708,7 +3986,11 @@
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
+    <c:headerFooter>
+      <c:oddHeader>&amp;C&amp;"Calibri (Body),Regular"&amp;18Comparisons
+&amp;"-,Regular"&amp;12
+</c:oddHeader>
+    </c:headerFooter>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
@@ -3754,7 +4036,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW5, HW4, HW3 Sort Average</a:t>
+              <a:t> HW7, HW5, HW4, HW3 Sort Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3815,24 +4097,24 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8166666666666668E-2</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7666666666666667E-2</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2666666666666668E-2</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6333333333333334E-2</c:v>
+                  <c:v>2490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.95E-2</c:v>
+                  <c:v>2801.3330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,24 +4146,24 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$T$4</c:f>
+              <c:f>Sheet1!$P$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61.4955</c:v>
+                  <c:v>2761.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.471</c:v>
+                  <c:v>7112.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174.88399999999999</c:v>
+                  <c:v>11187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.89099999999999</c:v>
+                  <c:v>16043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>283.70699999999999</c:v>
+                  <c:v>20537.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,24 +4195,24 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$11:$T$11</c:f>
+              <c:f>Sheet1!$P$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>116.166</c:v>
+                  <c:v>2602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226.637</c:v>
+                  <c:v>7012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327.93</c:v>
+                  <c:v>10705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.94200000000001</c:v>
+                  <c:v>15749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>547.59500000000003</c:v>
+                  <c:v>19711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,6 +4221,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9BA2-9C49-9FC4-2426B1492E9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>HW7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$T$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5222.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9519.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12560.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17164.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92EF-4B4B-B9D7-D81A8BF8D695}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8734,10 +9088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8953D5E7-E9CC-4B4E-9EED-292E2684BBF6}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="69" zoomScaleNormal="100" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8745,6 +9099,10 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9127,12 +9485,141 @@
         <v>19711</v>
       </c>
     </row>
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f>(0.5851+0.6242+0.4831)/3</f>
+        <v>0.56413333333333326</v>
+      </c>
+      <c r="Q16" s="11">
+        <f>(0.7623+0.8253+0.8175)/3</f>
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0.45061100000000004</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0.58162666666666674</v>
+      </c>
+    </row>
+    <row r="17" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <f>(0.0125+0.0095+0)/3</f>
+        <v>7.3333333333333332E-3</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>(0.002+0.001+0.0125)/3</f>
+        <v>5.1666666666666666E-3</v>
+      </c>
+      <c r="R17" s="13">
+        <v>2.166666666666667E-3</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2.8333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="12">
+        <f>(0.012+0.002+0.0065)/3</f>
+        <v>6.8333333333333336E-3</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>(0.01+0.0015+0.0125)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="R18" s="13">
+        <v>5.3333333333333332E-3</v>
+      </c>
+      <c r="S18" s="13">
+        <v>3.966666666666667E-2</v>
+      </c>
+      <c r="T18" s="13">
+        <v>3.166666666666667E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="12">
+        <f>(5098+10375+4644)/3</f>
+        <v>6705.666666666667</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>(11709+12005+12051)/3</f>
+        <v>11921.666666666666</v>
+      </c>
+      <c r="R19" s="13">
+        <v>17128.333333333332</v>
+      </c>
+      <c r="S19" s="13">
+        <v>21655</v>
+      </c>
+      <c r="T19" s="13">
+        <v>26750.666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="12">
+        <f>(3886+3889+7893)/3</f>
+        <v>5222.666666666667</v>
+      </c>
+      <c r="Q20" s="13">
+        <f>(9100+9780+9679)/3</f>
+        <v>9519.6666666666661</v>
+      </c>
+      <c r="R20" s="13">
+        <v>12560.666666666666</v>
+      </c>
+      <c r="S20" s="13">
+        <v>17164.666666666668</v>
+      </c>
+      <c r="T20" s="13">
+        <v>21567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C&amp;"Calibri (Body),Regular"&amp;18HW5
-&amp;"-,Regular"&amp;12
+    <oddHeader xml:space="preserve">&amp;C
 </oddHeader>
   </headerFooter>
   <drawing r:id="rId1"/>

--- a/HW5/hw5.xlsx
+++ b/HW5/hw5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/OneDrive - Gonzaga University/CPSC 223-01/vm-share/CPSC223/ComputerScience223/HW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{51475296-EAAD-2347-ABB7-A5B0E8B10091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14DB74F3-338C-F24A-ADF7-2D74FDE02A7E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{51475296-EAAD-2347-ABB7-A5B0E8B10091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0A7BAA0-38ED-D84F-9D1C-3199383C85E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{48DEC31F-1F93-F14E-890E-943183DD87A8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{48DEC31F-1F93-F14E-890E-943183DD87A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>Insert Average</t>
   </si>
@@ -74,13 +74,17 @@
   <si>
     <t>HW7</t>
   </si>
+  <si>
+    <t>HW8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -234,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -249,6 +253,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,7 +1500,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW7, HW5, HW4, HW3 Insert Average</a:t>
+              <a:t> HW8, HW7, HW5, HW4, HW3 Insert Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1749,6 +1757,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F4C9-C947-BB95-EE7B2B64C518}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HW8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1314249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49954999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34155000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E81C-B947-B21A-AA58BC16E709}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2127,7 +2207,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> HW7, HW5, HW4, HW3 Remove Average</a:t>
+              <a:t> HW8, HW7, HW5, HW4, HW3 Remove Average</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2384,6 +2464,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2594-F74D-AA86-E2404E89465B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HW8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-953D-1A4B-A4AF-E5C566F44DFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2758,7 +2910,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparing</a:t>
+              <a:t>Comparing HW8,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3019,6 +3171,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC10-3C45-ADE6-15BCDAD48699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HW8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$25:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85024999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49725000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F35-A044-BD5D-8B3181B30A93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3393,7 +3617,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparing</a:t>
+              <a:t>Comparing HW8,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -3654,6 +3878,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4C4-0748-A378-A61C7A0F8FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HW8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$26:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3305.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4014.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7951.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E525-7944-B02E-BA5D5B259B7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4032,7 +4328,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparing</a:t>
+              <a:t>Comparing HW8,</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4293,6 +4589,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-92EF-4B4B-B9D7-D81A8BF8D695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>HW8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$T$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30k</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40k</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$27:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6356.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96C3-814B-841E-0BCB88534FB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9088,10 +9456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8953D5E7-E9CC-4B4E-9EED-292E2684BBF6}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9615,6 +9983,144 @@
         <v>21567</v>
       </c>
     </row>
+    <row r="22" spans="15:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="15:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.9345</v>
+      </c>
+      <c r="Q23" s="15">
+        <f>(1.0312+1.23165)/2</f>
+        <v>1.1314249999999999</v>
+      </c>
+      <c r="R23" s="15">
+        <f>(0.794633+0.771567)/2</f>
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="S23" s="15">
+        <f>(0.424775+0.574325)/2</f>
+        <v>0.49954999999999999</v>
+      </c>
+      <c r="T23" s="15">
+        <f>(0.3708+0.3123)/2</f>
+        <v>0.34155000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="16">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="Q25" s="17">
+        <f>(2.0435+2.7515)/2</f>
+        <v>2.3975</v>
+      </c>
+      <c r="R25" s="17">
+        <f>(1.255+1.305)/2</f>
+        <v>1.2799999999999998</v>
+      </c>
+      <c r="S25" s="17">
+        <f>(0.877+0.8235)/2</f>
+        <v>0.85024999999999995</v>
+      </c>
+      <c r="T25" s="17">
+        <f>(0.4435+0.551)/2</f>
+        <v>0.49725000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="16">
+        <f>(1763+1715)/2</f>
+        <v>1739</v>
+      </c>
+      <c r="Q26" s="17">
+        <f>(3200+3411)/2</f>
+        <v>3305.5</v>
+      </c>
+      <c r="R26" s="17">
+        <f>(3841+4188)/2</f>
+        <v>4014.5</v>
+      </c>
+      <c r="S26" s="17">
+        <f>(6256+6354)/2</f>
+        <v>6305</v>
+      </c>
+      <c r="T26" s="17">
+        <f>(7825+8078)/2</f>
+        <v>7951.5</v>
+      </c>
+    </row>
+    <row r="27" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="16">
+        <f>(1192+1226)/2</f>
+        <v>1209</v>
+      </c>
+      <c r="Q27" s="17">
+        <f>(2191+3411)/2</f>
+        <v>2801</v>
+      </c>
+      <c r="R27" s="17">
+        <f>(2774+3312)/2</f>
+        <v>3043</v>
+      </c>
+      <c r="S27" s="17">
+        <f>(5160+5230)/2</f>
+        <v>5195</v>
+      </c>
+      <c r="T27" s="17">
+        <f>(6181+6532)/2</f>
+        <v>6356.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
